--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -483,10 +507,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -530,28 +554,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3">
+      <c r="A14" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -576,28 +600,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="3">
+      <c r="B16" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="F16" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="3">
+      <c r="G16" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="3">
+      <c r="I16" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -830,10 +854,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -877,28 +901,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="3">
+      <c r="A26" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -923,28 +947,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="3">
+      <c r="B28" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="3">
+      <c r="C28" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="3">
+      <c r="D28" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="3">
+      <c r="F28" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="3">
+      <c r="G28" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="3">
+      <c r="H28" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="3">
+      <c r="I28" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1032,10 +1056,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1079,28 +1103,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="3">
+      <c r="A33" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1125,28 +1149,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="3">
+      <c r="I35" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1553,10 +1577,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1600,28 +1624,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1646,28 +1670,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1929,10 +1953,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1976,28 +2000,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="3">
+      <c r="A64" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="3">
+      <c r="C64" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="3">
+      <c r="D64" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2022,28 +2046,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="3">
+      <c r="D66" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="3">
+      <c r="I66" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2363,10 +2387,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2410,28 +2434,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="3">
+      <c r="A79" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="3">
+      <c r="C79" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="3">
+      <c r="D79" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2456,28 +2480,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="3">
+      <c r="C81" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="3">
+      <c r="D81" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="3">
+      <c r="I81" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2768,10 +2792,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2815,28 +2839,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="3">
+      <c r="A93" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="3">
+      <c r="C93" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="3">
+      <c r="D93" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2861,28 +2885,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="3">
+      <c r="I95" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3144,10 +3168,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="J104" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="3" t="s">
+      <c r="K104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3191,28 +3215,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="3">
+      <c r="C106" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D106" t="s" s="3">
+      <c r="D106" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3237,28 +3261,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="3">
+      <c r="C108" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="3">
+      <c r="D108" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="3">
+      <c r="I108" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3810,10 +3834,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="3" t="s">
+      <c r="K127" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3857,28 +3881,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3903,28 +3927,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4070,10 +4094,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="J136" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4117,28 +4141,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="3">
+      <c r="A138" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4163,28 +4187,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="3">
+      <c r="B140" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="3">
+      <c r="C140" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="3">
+      <c r="D140" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="F140" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="3">
+      <c r="G140" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="3">
+      <c r="H140" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="3">
+      <c r="I140" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4359,10 +4383,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="J146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="3" t="s">
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4406,28 +4430,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="3">
+      <c r="A148" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4452,28 +4476,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="3">
+      <c r="C150" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="3">
+      <c r="D150" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="3">
+      <c r="I150" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4648,10 +4672,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="J156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="3" t="s">
+      <c r="K156" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4695,28 +4719,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="3">
+      <c r="A158" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="3">
+      <c r="B158" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="3">
+      <c r="C158" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="3">
+      <c r="D158" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="3">
+      <c r="E158" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="3">
+      <c r="F158" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="3">
+      <c r="G158" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="3">
+      <c r="H158" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4741,28 +4765,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="3">
+      <c r="C160" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="3">
+      <c r="D160" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="3">
+      <c r="I160" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4937,10 +4961,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J166" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="3" t="s">
+      <c r="K166" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
